--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2D992-1D13-4349-8BC3-A9A14BCC5D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,22 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -154,15 +165,6 @@
     <t>Model Subscript</t>
   </si>
   <si>
-    <t>Variable O&amp;M (2013 $/MWh)</t>
-  </si>
-  <si>
-    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
-  </si>
-  <si>
     <t>Scrubbed Coal</t>
   </si>
   <si>
@@ -172,15 +174,9 @@
     <t>Conventional Gas/Oil Combined Cycle</t>
   </si>
   <si>
-    <t>Advanced Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
     <t>Conventional Combustion Turbine</t>
   </si>
   <si>
-    <t>Advanced Combustion Turbine</t>
-  </si>
-  <si>
     <t>Advanced Nuclear</t>
   </si>
   <si>
@@ -196,12 +192,6 @@
     <t>https://www.eia.gov/forecasts/aeo/assumptions/pdf/electricity.pdf</t>
   </si>
   <si>
-    <t>wind and solar PV capital costs.</t>
-  </si>
-  <si>
-    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
-  </si>
-  <si>
     <t>Our EIA source uses 2013 dollars.</t>
   </si>
   <si>
@@ -236,9 +226,6 @@
   </si>
   <si>
     <t>http://brattle.com/system/publications/pdfs/000/005/188/original/Comparative_Generation_Costs_of_Utility-Scale_and_Residential-Scale_PV_in_Xcel_Energy_Colorado's_Service_Area.pdf?1436797265</t>
-  </si>
-  <si>
-    <t>This document is included as Appendix B of a report by Brattle Group.  It is on Page 10 of the EnerNex report, which is Page 70 of the PDF</t>
   </si>
   <si>
     <t>For coal, we use values for a coal plant that features carbon capture and sequestration (CCS),</t>
@@ -736,15 +723,9 @@
     <t>AEO 2019</t>
   </si>
   <si>
-    <t>2015, 2019</t>
-  </si>
-  <si>
     <t>Assumptions to Annual Energy Outlook 2015, 2019</t>
   </si>
   <si>
-    <t>Electricity Market Module, Table 2</t>
-  </si>
-  <si>
     <t>2018 Wind Technologies Market Report</t>
   </si>
   <si>
@@ -788,12 +769,48 @@
   </si>
   <si>
     <t>2018 Solar Capital Cost, Cost Imrpovement Rates, and Offshore Wind Costs</t>
+  </si>
+  <si>
+    <t>Overnight Capital Cost ($/kW)</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M ($/kW-yr)</t>
+  </si>
+  <si>
+    <t>AEO 2020</t>
+  </si>
+  <si>
+    <t>Combined Cycle - Single Shaft</t>
+  </si>
+  <si>
+    <t>Conbustion turbine - industrial frame</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Intentionally keeping older-year source for preexisting retiring plants</t>
+  </si>
+  <si>
+    <t>We do not use the values in red because they exceed real-world observed costs.</t>
+  </si>
+  <si>
+    <t>We use other sources for wind and solar PV capital costs.</t>
+  </si>
+  <si>
+    <t>2015, 2019, 2020</t>
+  </si>
+  <si>
+    <t>Electricity Market Module, Table 2 (AEO 2015, 2019) or Table 3 (AEO 2020)</t>
+  </si>
+  <si>
+    <t>This document is included as Appendix B of a report by Brattle Group.  It is on page 10 of the EnerNex report, which is page 70 of the PDF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1549,7 +1566,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1687,6 +1704,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1713,234 +1745,234 @@
     </xf>
   </cellXfs>
   <cellStyles count="228">
-    <cellStyle name="20% - Accent1 2" xfId="16"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="151"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="162"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="184"/>
-    <cellStyle name="20% - Accent2 2" xfId="18"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="19"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="152"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="163"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="185"/>
-    <cellStyle name="20% - Accent3 2" xfId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="21"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="153"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="164"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="186"/>
-    <cellStyle name="20% - Accent4 2" xfId="22"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="23"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="154"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="165"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="187"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculated" xfId="24"/>
-    <cellStyle name="Comma 10" xfId="25"/>
-    <cellStyle name="Comma 10 2" xfId="155"/>
-    <cellStyle name="Comma 10 2 2" xfId="177"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="221"/>
-    <cellStyle name="Comma 10 2 3" xfId="199"/>
-    <cellStyle name="Comma 10 3" xfId="166"/>
-    <cellStyle name="Comma 10 3 2" xfId="210"/>
-    <cellStyle name="Comma 10 4" xfId="188"/>
-    <cellStyle name="Comma 11" xfId="26"/>
-    <cellStyle name="Comma 2" xfId="27"/>
-    <cellStyle name="Comma 2 2" xfId="28"/>
-    <cellStyle name="Comma 2 2 2" xfId="156"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="178"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="222"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="200"/>
-    <cellStyle name="Comma 2 2 3" xfId="167"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="211"/>
-    <cellStyle name="Comma 2 2 4" xfId="189"/>
-    <cellStyle name="Comma 3" xfId="29"/>
-    <cellStyle name="Comma 3 2" xfId="30"/>
-    <cellStyle name="Comma 3 2 2" xfId="157"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="179"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="223"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="201"/>
-    <cellStyle name="Comma 3 2 3" xfId="168"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="212"/>
-    <cellStyle name="Comma 3 2 4" xfId="190"/>
-    <cellStyle name="Comma 4" xfId="31"/>
-    <cellStyle name="Comma 5" xfId="32"/>
-    <cellStyle name="Comma 6" xfId="33"/>
-    <cellStyle name="Comma 7" xfId="34"/>
-    <cellStyle name="Comma 8" xfId="35"/>
-    <cellStyle name="Comma 9" xfId="36"/>
-    <cellStyle name="Currency 2" xfId="37"/>
-    <cellStyle name="Currency 3" xfId="38"/>
-    <cellStyle name="Currency 4" xfId="39"/>
-    <cellStyle name="Currency 5" xfId="40"/>
-    <cellStyle name="Currency 6" xfId="41"/>
-    <cellStyle name="Currency 7" xfId="42"/>
-    <cellStyle name="Currency 8" xfId="43"/>
-    <cellStyle name="Currency 8 2" xfId="158"/>
-    <cellStyle name="Currency 8 2 2" xfId="180"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="224"/>
-    <cellStyle name="Currency 8 2 3" xfId="202"/>
-    <cellStyle name="Currency 8 3" xfId="169"/>
-    <cellStyle name="Currency 8 3 2" xfId="213"/>
-    <cellStyle name="Currency 8 4" xfId="191"/>
+    <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calculated" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 10" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 10 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Comma 10 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Comma 10 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Comma 10 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Comma 10 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Comma 10 4" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma 11" xfId="26" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Comma 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Comma 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Comma 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Comma 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Comma 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Comma 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Currency 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Currency 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Currency 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Currency 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Currency 6" xfId="41" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Currency 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Currency 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Currency 8 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Currency 8 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Currency 8 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Currency 8 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Currency 8 3 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Currency 8 4" xfId="191" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
-    <cellStyle name="Heading" xfId="44"/>
-    <cellStyle name="Heading 2 2" xfId="45"/>
-    <cellStyle name="Heading2" xfId="46"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Heading 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Heading2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 10" xfId="47"/>
-    <cellStyle name="Hyperlink 10 2" xfId="48"/>
-    <cellStyle name="Hyperlink 10 3" xfId="49"/>
-    <cellStyle name="Hyperlink 11" xfId="50"/>
-    <cellStyle name="Hyperlink 11 2" xfId="51"/>
-    <cellStyle name="Hyperlink 11 3" xfId="52"/>
-    <cellStyle name="Hyperlink 12" xfId="53"/>
-    <cellStyle name="Hyperlink 12 2" xfId="54"/>
-    <cellStyle name="Hyperlink 12 3" xfId="55"/>
-    <cellStyle name="Hyperlink 13" xfId="56"/>
-    <cellStyle name="Hyperlink 13 2" xfId="57"/>
-    <cellStyle name="Hyperlink 13 3" xfId="58"/>
-    <cellStyle name="Hyperlink 14" xfId="59"/>
-    <cellStyle name="Hyperlink 14 2" xfId="60"/>
-    <cellStyle name="Hyperlink 14 3" xfId="61"/>
-    <cellStyle name="Hyperlink 15" xfId="62"/>
-    <cellStyle name="Hyperlink 15 2" xfId="63"/>
-    <cellStyle name="Hyperlink 15 3" xfId="64"/>
-    <cellStyle name="Hyperlink 16" xfId="65"/>
-    <cellStyle name="Hyperlink 16 2" xfId="66"/>
-    <cellStyle name="Hyperlink 16 3" xfId="67"/>
-    <cellStyle name="Hyperlink 17" xfId="68"/>
-    <cellStyle name="Hyperlink 17 2" xfId="69"/>
-    <cellStyle name="Hyperlink 17 3" xfId="70"/>
-    <cellStyle name="Hyperlink 18" xfId="71"/>
-    <cellStyle name="Hyperlink 18 2" xfId="72"/>
-    <cellStyle name="Hyperlink 18 3" xfId="73"/>
-    <cellStyle name="Hyperlink 19" xfId="74"/>
-    <cellStyle name="Hyperlink 19 2" xfId="75"/>
-    <cellStyle name="Hyperlink 19 3" xfId="76"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
-    <cellStyle name="Hyperlink 2 2" xfId="78"/>
-    <cellStyle name="Hyperlink 2 3" xfId="79"/>
-    <cellStyle name="Hyperlink 2 4" xfId="77"/>
-    <cellStyle name="Hyperlink 20" xfId="80"/>
-    <cellStyle name="Hyperlink 20 2" xfId="81"/>
-    <cellStyle name="Hyperlink 20 3" xfId="82"/>
-    <cellStyle name="Hyperlink 21" xfId="83"/>
-    <cellStyle name="Hyperlink 21 2" xfId="84"/>
-    <cellStyle name="Hyperlink 21 3" xfId="85"/>
-    <cellStyle name="Hyperlink 22" xfId="86"/>
-    <cellStyle name="Hyperlink 22 2" xfId="87"/>
-    <cellStyle name="Hyperlink 22 3" xfId="88"/>
-    <cellStyle name="Hyperlink 23" xfId="89"/>
-    <cellStyle name="Hyperlink 23 2" xfId="90"/>
-    <cellStyle name="Hyperlink 23 3" xfId="91"/>
-    <cellStyle name="Hyperlink 24" xfId="92"/>
-    <cellStyle name="Hyperlink 25" xfId="93"/>
-    <cellStyle name="Hyperlink 26" xfId="94"/>
-    <cellStyle name="Hyperlink 27" xfId="95"/>
-    <cellStyle name="Hyperlink 28" xfId="96"/>
-    <cellStyle name="Hyperlink 29" xfId="97"/>
-    <cellStyle name="Hyperlink 3" xfId="98"/>
-    <cellStyle name="Hyperlink 3 2" xfId="99"/>
-    <cellStyle name="Hyperlink 3 3" xfId="100"/>
-    <cellStyle name="Hyperlink 30" xfId="101"/>
-    <cellStyle name="Hyperlink 31" xfId="102"/>
-    <cellStyle name="Hyperlink 32" xfId="103"/>
-    <cellStyle name="Hyperlink 33" xfId="104"/>
-    <cellStyle name="Hyperlink 33 2" xfId="105"/>
-    <cellStyle name="Hyperlink 33 3" xfId="106"/>
-    <cellStyle name="Hyperlink 34" xfId="107"/>
-    <cellStyle name="Hyperlink 34 2" xfId="108"/>
-    <cellStyle name="Hyperlink 34 3" xfId="109"/>
-    <cellStyle name="Hyperlink 34 4" xfId="110"/>
-    <cellStyle name="Hyperlink 34 5" xfId="111"/>
-    <cellStyle name="Hyperlink 4" xfId="112"/>
-    <cellStyle name="Hyperlink 4 2" xfId="113"/>
-    <cellStyle name="Hyperlink 4 3" xfId="114"/>
-    <cellStyle name="Hyperlink 5" xfId="115"/>
-    <cellStyle name="Hyperlink 5 2" xfId="116"/>
-    <cellStyle name="Hyperlink 5 3" xfId="117"/>
-    <cellStyle name="Hyperlink 6" xfId="118"/>
-    <cellStyle name="Hyperlink 6 2" xfId="119"/>
-    <cellStyle name="Hyperlink 6 3" xfId="120"/>
-    <cellStyle name="Hyperlink 7" xfId="121"/>
-    <cellStyle name="Hyperlink 7 2" xfId="122"/>
-    <cellStyle name="Hyperlink 7 3" xfId="123"/>
-    <cellStyle name="Hyperlink 8" xfId="124"/>
-    <cellStyle name="Hyperlink 8 2" xfId="125"/>
-    <cellStyle name="Hyperlink 8 3" xfId="126"/>
-    <cellStyle name="Hyperlink 9" xfId="127"/>
-    <cellStyle name="Hyperlink 9 2" xfId="128"/>
-    <cellStyle name="Hyperlink 9 3" xfId="129"/>
-    <cellStyle name="Input 2" xfId="130"/>
-    <cellStyle name="Linked" xfId="131"/>
+    <cellStyle name="Hyperlink 10" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 10 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hyperlink 10 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hyperlink 11" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Hyperlink 11 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Hyperlink 12" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Hyperlink 12 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Hyperlink 12 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Hyperlink 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Hyperlink 13 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Hyperlink 13 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Hyperlink 14" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Hyperlink 14 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Hyperlink 14 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Hyperlink 15 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Hyperlink 15 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Hyperlink 16" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Hyperlink 16 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Hyperlink 16 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Hyperlink 17" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Hyperlink 17 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Hyperlink 17 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Hyperlink 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Hyperlink 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Hyperlink 18 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Hyperlink 19" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Hyperlink 19 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Hyperlink 19 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Hyperlink 20" xfId="80" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Hyperlink 20 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Hyperlink 20 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Hyperlink 21" xfId="83" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Hyperlink 21 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Hyperlink 21 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Hyperlink 22" xfId="86" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Hyperlink 22 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Hyperlink 22 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Hyperlink 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Hyperlink 23 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Hyperlink 23 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Hyperlink 24" xfId="92" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Hyperlink 25" xfId="93" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Hyperlink 26" xfId="94" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Hyperlink 27" xfId="95" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Hyperlink 28" xfId="96" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Hyperlink 29" xfId="97" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Hyperlink 30" xfId="101" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Hyperlink 31" xfId="102" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Hyperlink 32" xfId="103" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Hyperlink 33" xfId="104" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Hyperlink 33 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Hyperlink 33 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Hyperlink 34" xfId="107" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Hyperlink 34 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Hyperlink 34 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Hyperlink 34 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Hyperlink 34 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Hyperlink 5 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Hyperlink 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Hyperlink 6 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Hyperlink 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Hyperlink 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Hyperlink 7 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Hyperlink 8" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Hyperlink 8 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Hyperlink 8 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Hyperlink 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Hyperlink 9 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Hyperlink 9 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Input 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Linked" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 2 2 2" xfId="132"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="159"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="181"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="203"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="170"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="214"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="192"/>
-    <cellStyle name="Normal 3" xfId="133"/>
-    <cellStyle name="Normal 4" xfId="134"/>
-    <cellStyle name="Normal 5" xfId="135"/>
-    <cellStyle name="Normal 6" xfId="136"/>
-    <cellStyle name="Normal 6 2" xfId="160"/>
-    <cellStyle name="Normal 6 2 2" xfId="182"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="226"/>
-    <cellStyle name="Normal 6 2 3" xfId="204"/>
-    <cellStyle name="Normal 6 3" xfId="171"/>
-    <cellStyle name="Normal 6 3 2" xfId="215"/>
-    <cellStyle name="Normal 6 4" xfId="193"/>
-    <cellStyle name="Normal 7" xfId="137"/>
-    <cellStyle name="Normal 8" xfId="138"/>
-    <cellStyle name="Normal Small" xfId="139"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="140"/>
-    <cellStyle name="Percent 2 2" xfId="141"/>
-    <cellStyle name="Percent 2 3" xfId="142"/>
-    <cellStyle name="Percent 2 4" xfId="161"/>
-    <cellStyle name="Percent 2 4 2" xfId="183"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="227"/>
-    <cellStyle name="Percent 2 4 3" xfId="205"/>
-    <cellStyle name="Percent 2 5" xfId="172"/>
-    <cellStyle name="Percent 2 5 2" xfId="216"/>
-    <cellStyle name="Percent 2 6" xfId="194"/>
-    <cellStyle name="Percent 3" xfId="143"/>
-    <cellStyle name="Percent 3 2" xfId="144"/>
-    <cellStyle name="Results" xfId="145"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
-    <cellStyle name="Title 2" xfId="146"/>
-    <cellStyle name="Title 3" xfId="147"/>
-    <cellStyle name="Unit" xfId="148"/>
-    <cellStyle name="UserInput" xfId="149"/>
-    <cellStyle name="Variable" xfId="150"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 5" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 6" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 6 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 6 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 6 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 7" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 8" xfId="138" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal Small" xfId="139" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Percent 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Percent 2 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Percent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Percent 2 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Percent 2 4 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Percent 2 5" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Percent 2 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Percent 2 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Percent 3" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Percent 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Results" xfId="145" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Title 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Unit" xfId="148" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="UserInput" xfId="149" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Variable" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1991,11 +2023,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2087,6 +2119,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2122,6 +2171,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2297,23 +2363,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="2" max="2" width="78.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2336,11 +2400,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2354,7 +2418,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2362,26 +2426,26 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2390,18 +2454,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2414,23 +2478,23 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -2447,7 +2511,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" s="23"/>
     </row>
@@ -2460,25 +2524,25 @@
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="42.75">
+    <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="14.65" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:11" ht="14.65" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
         <v>29</v>
@@ -2510,7 +2574,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="11"/>
@@ -2523,7 +2587,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2536,7 +2600,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2560,7 +2624,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2573,7 +2637,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2586,7 +2650,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2599,7 +2663,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2612,7 +2676,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2673,7 +2737,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2686,7 +2750,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
@@ -2699,7 +2763,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2712,7 +2776,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2725,7 +2789,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2738,7 +2802,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2762,7 +2826,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2775,7 +2839,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
@@ -2788,7 +2852,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2812,7 +2876,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2825,7 +2889,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
@@ -2862,7 +2926,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2876,7 +2940,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2890,7 +2954,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2932,7 +2996,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2959,7 +3023,9 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="25"/>
+      <c r="A64" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
@@ -2971,8 +3037,8 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="19" t="s">
-        <v>24</v>
+      <c r="A65" s="25">
+        <v>0.89800000000000002</v>
       </c>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -2985,7 +3051,7 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="10"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
       <c r="E66" s="11"/>
@@ -2997,7 +3063,9 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="10"/>
+      <c r="A67" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="11"/>
@@ -3201,7 +3269,7 @@
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="7"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
       <c r="E84" s="11"/>
@@ -3212,13 +3280,37 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10"/>
+      <c r="B85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -3226,58 +3318,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="26.73046875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="52.59765625" customWidth="1"/>
-    <col min="4" max="4" width="34.3984375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="58" customFormat="1" ht="30">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2">
         <v>2917</v>
@@ -3288,48 +3383,51 @@
       <c r="F2" s="16">
         <v>31.16</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="60">
         <v>2013</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>5169</v>
-      </c>
-      <c r="E3" s="16">
-        <v>7.31</v>
-      </c>
-      <c r="F3" s="16">
-        <v>72.12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="D3" s="63">
+        <v>4652</v>
+      </c>
+      <c r="E3" s="62">
+        <v>7.05</v>
+      </c>
+      <c r="F3" s="62">
+        <v>54.07</v>
+      </c>
+      <c r="G3" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>999</v>
@@ -3340,48 +3438,51 @@
       <c r="F4" s="16">
         <v>11.33</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="53">
+      <c r="G4" s="60">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>794</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2.06</v>
-      </c>
-      <c r="F5" s="16">
-        <v>10.3</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H5" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1079</v>
+      </c>
+      <c r="E5" s="62">
+        <v>2.54</v>
+      </c>
+      <c r="F5" s="62">
+        <v>14.04</v>
+      </c>
+      <c r="G5" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>1126</v>
@@ -3392,305 +3493,310 @@
       <c r="F6" s="16">
         <v>18.03</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="G6" s="60">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>691</v>
-      </c>
-      <c r="E7" s="16">
-        <v>11.02</v>
-      </c>
-      <c r="F7" s="16">
-        <v>7.01</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="D7" s="63">
+        <v>710</v>
+      </c>
+      <c r="E7" s="62">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F7" s="62">
+        <v>6.97</v>
+      </c>
+      <c r="G7" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>6034</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.37</v>
-      </c>
-      <c r="F8" s="16">
-        <v>103.31</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="D8" s="63">
+        <v>6317</v>
+      </c>
+      <c r="E8" s="62">
+        <v>2.36</v>
+      </c>
+      <c r="F8" s="62">
+        <v>121.13</v>
+      </c>
+      <c r="G8" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>3900</v>
-      </c>
-      <c r="E9" s="16">
-        <v>5.7</v>
-      </c>
-      <c r="F9" s="16">
-        <v>114.39</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="63">
+        <v>4104</v>
+      </c>
+      <c r="E9" s="62">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F9" s="62">
+        <v>125.19</v>
+      </c>
+      <c r="G9" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>2787</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>122.28</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" s="63">
+        <v>2680</v>
+      </c>
+      <c r="E10" s="62">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F10" s="62">
+        <v>113.29</v>
+      </c>
+      <c r="G10" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>2948</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="F11" s="16">
-        <v>40.85</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="D11" s="63">
+        <v>2752</v>
+      </c>
+      <c r="E11" s="62">
+        <v>1.39</v>
+      </c>
+      <c r="F11" s="62">
+        <v>41.63</v>
+      </c>
+      <c r="G11" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>1624</v>
+        <v>1319</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>48.42</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26.22</v>
+      </c>
+      <c r="G12" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="24">
-        <v>6542</v>
+        <v>5446</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>80.14</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>109.54</v>
+      </c>
+      <c r="G13" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>4291</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>72.84</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="63">
+        <v>7191</v>
+      </c>
+      <c r="E14" s="62">
+        <v>0</v>
+      </c>
+      <c r="F14" s="62">
+        <v>85.03</v>
+      </c>
+      <c r="G14" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="24">
-        <v>1783</v>
+        <v>1331</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>22.46</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="23" customFormat="1">
+        <v>15.19</v>
+      </c>
+      <c r="G15" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D16" s="52">
-        <v>8895</v>
-      </c>
-      <c r="E16" s="16">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="F16" s="16">
-        <v>425.38</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="H16" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>1557</v>
+      </c>
+      <c r="E16" s="62">
+        <v>6.17</v>
+      </c>
+      <c r="F16" s="62">
+        <v>20.02</v>
+      </c>
+      <c r="G16" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3712,7 +3818,7 @@
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3743,81 +3849,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.73046875" style="47" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="47" customWidth="1"/>
     <col min="3" max="3" width="21" style="47" customWidth="1"/>
-    <col min="4" max="8" width="20.73046875" style="47" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="58"/>
+        <v>75</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3829,9 +3935,9 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="27">
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="30" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3855,12 +3961,12 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27">
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -3883,7 +3989,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -3893,9 +3999,9 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="27">
+    <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="36" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -3921,7 +4027,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -3933,7 +4039,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -3957,9 +4063,9 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.75">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3971,7 +4077,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -3995,9 +4101,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40.5">
+    <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -4023,7 +4129,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -4049,7 +4155,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -4073,9 +4179,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27">
+    <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -4099,9 +4205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -4125,9 +4231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4153,7 +4259,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4179,7 +4285,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -4203,9 +4309,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27">
+    <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -4231,7 +4337,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -4257,7 +4363,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -4283,7 +4389,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -4309,7 +4415,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -4335,19 +4441,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -4361,7 +4467,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -4387,10 +4493,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -4411,9 +4517,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27">
+    <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -4437,12 +4543,12 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27">
+    <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -4465,12 +4571,12 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -4481,7 +4587,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -4492,7 +4598,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -4516,22 +4622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.73046875" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4571,10 +4677,10 @@
     </row>
     <row r="2" spans="1:36" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -4684,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4794,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -4904,7 +5010,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="53">
         <v>6044.2528846388041</v>
@@ -5014,7 +5120,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="53">
         <v>5501.4276276478286</v>
@@ -5124,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" s="53">
         <v>4068.8324979159847</v>
@@ -5234,7 +5340,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C8" s="53">
         <v>3836.1961011946664</v>
@@ -5344,7 +5450,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C9" s="53">
         <v>7123.1024412096613</v>
@@ -5454,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="53">
         <v>6358.970494457717</v>
@@ -5564,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C11" s="53">
         <v>6228.2456569988753</v>
@@ -5674,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="53">
         <v>5606.8362940961097</v>
@@ -5784,7 +5890,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C13" s="53">
         <v>6199.7160723985862</v>
@@ -5894,7 +6000,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" s="53">
         <v>7561.0934235746954</v>
@@ -6004,7 +6110,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C15" s="53">
         <v>7561.0934235746954</v>
@@ -6114,7 +6220,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16" s="53">
         <v>7561.0934235746954</v>
@@ -6224,7 +6330,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C17" s="53">
         <v>3827.2968566587979</v>
@@ -6334,7 +6440,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C18" s="53">
         <v>4013.1693740693227</v>
@@ -6444,7 +6550,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C19" s="53">
         <v>4013.1693740693227</v>
@@ -6554,7 +6660,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C20" s="53">
         <v>4305.3925876948315</v>
@@ -6664,7 +6770,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C21" s="53">
         <v>5576.5909167824766</v>
@@ -6774,7 +6880,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C22" s="53">
         <v>14196.524804379835</v>
@@ -6884,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C23" s="53">
         <v>31389.002895326357</v>
@@ -6994,7 +7100,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C24" s="53">
         <v>14196.524804379835</v>
@@ -7104,7 +7210,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C25" s="53">
         <v>31389.002895326357</v>
@@ -7214,7 +7320,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C26" s="53">
         <v>899.1125440742336</v>
@@ -7321,10 +7427,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C27" s="53">
         <v>2985.7163232225957</v>
@@ -7431,10 +7537,10 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C28" s="53">
         <v>3068.5330578578878</v>
@@ -7541,10 +7647,10 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C29" s="53">
         <v>3161.5232415013843</v>
@@ -7651,10 +7757,10 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C30" s="53">
         <v>3433.5732515006521</v>
@@ -7761,10 +7867,10 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C31" s="53">
         <v>3650.4675562858592</v>
@@ -7871,10 +7977,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C32" s="53">
         <v>4469.1889883621543</v>
@@ -7981,10 +8087,10 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C33" s="53">
         <v>4351.9349981933547</v>
@@ -8091,10 +8197,10 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C34" s="53">
         <v>4362.9480041823535</v>
@@ -8201,10 +8307,10 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C35" s="53">
         <v>4522.3633673455815</v>
@@ -8311,10 +8417,10 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C36" s="53">
         <v>4645.8187533874998</v>
@@ -8421,10 +8527,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8531,10 +8637,10 @@
     </row>
     <row r="38" spans="1:36" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8641,10 +8747,10 @@
     </row>
     <row r="39" spans="1:36" s="23" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8751,10 +8857,10 @@
     </row>
     <row r="40" spans="1:36" s="23" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8861,10 +8967,10 @@
     </row>
     <row r="41" spans="1:36" s="23" customFormat="1">
       <c r="A41" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -8972,7 +9078,7 @@
     <row r="42" spans="1:36" s="23" customFormat="1"/>
     <row r="43" spans="1:36" s="53" customFormat="1">
       <c r="A43" s="55" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B43" s="55"/>
     </row>
@@ -8982,7 +9088,7 @@
     </row>
     <row r="45" spans="1:36" s="53" customFormat="1">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B45" s="23">
         <v>12.491269722013936</v>
@@ -8990,7 +9096,7 @@
     </row>
     <row r="46" spans="1:36" s="53" customFormat="1">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B46" s="23">
         <v>24.982539444027871</v>
@@ -8998,7 +9104,7 @@
     </row>
     <row r="47" spans="1:36" s="53" customFormat="1">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B47" s="23">
         <v>49.965078888055743</v>
@@ -9006,7 +9112,7 @@
     </row>
     <row r="48" spans="1:36" s="53" customFormat="1">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B48" s="23">
         <v>320</v>
@@ -9014,7 +9120,7 @@
     </row>
     <row r="49" spans="1:35" s="53" customFormat="1">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B49" s="23">
         <v>320</v>
@@ -9022,7 +9128,7 @@
     </row>
     <row r="50" spans="1:35" s="53" customFormat="1">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B50" s="23">
         <v>12.491269722013936</v>
@@ -9030,7 +9136,7 @@
     </row>
     <row r="51" spans="1:35" s="53" customFormat="1">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B51" s="23">
         <v>24.982539444027871</v>
@@ -9038,7 +9144,7 @@
     </row>
     <row r="52" spans="1:35" s="53" customFormat="1">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B52" s="23">
         <v>49.965078888055743</v>
@@ -9046,7 +9152,7 @@
     </row>
     <row r="53" spans="1:35" s="53" customFormat="1">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B53" s="23">
         <v>99.930157776111486</v>
@@ -9054,7 +9160,7 @@
     </row>
     <row r="54" spans="1:35" s="53" customFormat="1">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B54" s="23">
         <v>199.86031555222297</v>
@@ -9062,7 +9168,7 @@
     </row>
     <row r="55" spans="1:35" s="53" customFormat="1">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B55" s="23">
         <v>199.86031555222297</v>
@@ -9070,7 +9176,7 @@
     </row>
     <row r="56" spans="1:35" s="53" customFormat="1">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B56" s="23">
         <v>199.86031555222297</v>
@@ -9078,7 +9184,7 @@
     </row>
     <row r="57" spans="1:35" s="53" customFormat="1">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B57" s="23">
         <v>199.86031555222297</v>
@@ -9086,7 +9192,7 @@
     </row>
     <row r="58" spans="1:35" s="53" customFormat="1">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B58" s="23">
         <v>199.86031555222297</v>
@@ -9094,7 +9200,7 @@
     </row>
     <row r="59" spans="1:35" s="53" customFormat="1">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B59" s="23">
         <v>143.39977640871999</v>
@@ -9103,7 +9209,7 @@
     <row r="60" spans="1:35" s="53" customFormat="1"/>
     <row r="61" spans="1:35" s="23" customFormat="1">
       <c r="A61" s="55" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -10375,7 +10481,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B71" s="23">
         <f t="shared" ref="B71:AI71" si="8">(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
@@ -10520,22 +10626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10543,18 +10647,18 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4">
         <f>('EIA Costs'!F2*1000)*(About!$A$61)</f>
@@ -10565,7 +10669,7 @@
       </c>
       <c r="D2" s="4">
         <f>'EIA Costs'!F3*1000*About!$A$61</f>
-        <v>71110.319999999992</v>
+        <v>53313.02</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10581,7 +10685,7 @@
       </c>
       <c r="D3" s="4">
         <f>'EIA Costs'!F5*1000*About!$A$63</f>
-        <v>9417.2900000000009</v>
+        <v>12836.772000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10590,14 +10694,14 @@
       </c>
       <c r="B4" s="4">
         <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
-        <v>94456.332999999999</v>
+        <v>110749.159</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>'EIA Costs'!F8*1000*About!$A$63</f>
-        <v>94456.332999999999</v>
+        <v>110749.159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10606,30 +10710,30 @@
       </c>
       <c r="B5" s="4">
         <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
-        <v>37349.154999999999</v>
+        <v>38062.309000000001</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
         <f>'EIA Costs'!F11*1000*About!$A$63</f>
-        <v>37349.154999999999</v>
+        <v>38062.309000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
-        <v>44270.406000000003</v>
+        <v>23972.946</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
         <f>'EIA Costs'!F12*1000*About!$A$63</f>
-        <v>44270.406000000003</v>
+        <v>23972.946</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10638,14 +10742,14 @@
       </c>
       <c r="B7" s="4">
         <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
-        <v>20535.178</v>
+        <v>13888.217000000001</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
         <f>'EIA Costs'!F15*1000*About!$A$63</f>
-        <v>20535.178</v>
+        <v>13888.217000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10654,14 +10758,14 @@
       </c>
       <c r="B8" s="4">
         <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
-        <v>66597.611999999994</v>
+        <v>77742.929000000004</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
         <f>'EIA Costs'!F14*1000*About!$A$63</f>
-        <v>66597.611999999994</v>
+        <v>77742.929000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10670,14 +10774,14 @@
       </c>
       <c r="B9" s="4">
         <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
-        <v>104586.777</v>
+        <v>114461.217</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
         <f>'EIA Costs'!F9*1000*About!$A$63</f>
-        <v>104586.777</v>
+        <v>114461.217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10686,14 +10790,14 @@
       </c>
       <c r="B10" s="4">
         <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
-        <v>111800.60400000001</v>
+        <v>103581.04700000001</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!F10*1000*About!$A$63</f>
-        <v>111800.60400000001</v>
+        <v>103581.04700000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10709,7 +10813,7 @@
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10725,12 +10829,12 @@
       </c>
       <c r="D12" s="4">
         <f>'EIA Costs'!F7*1000*About!$A$63</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -10742,28 +10846,28 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>71110.319999999992</v>
+        <v>53313.02</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4">
         <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
-        <v>73272.001999999993</v>
+        <v>100152.42200000001</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
         <f>'EIA Costs'!F13*1000*About!$A$63</f>
-        <v>73272.001999999993</v>
+        <v>100152.42200000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -10774,12 +10878,12 @@
       </c>
       <c r="D15" s="4">
         <f>D11</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -10790,23 +10894,23 @@
       </c>
       <c r="D16" s="4">
         <f>D11</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" s="4">
         <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
-        <v>388924.93400000001</v>
+        <v>18304.286</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
         <f>'EIA Costs'!F16*1000*About!$A$63</f>
-        <v>388924.93400000001</v>
+        <v>18304.286</v>
       </c>
     </row>
   </sheetData>
@@ -10816,21 +10920,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="23" customWidth="1"/>
     <col min="2" max="4" width="24" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="23"/>
+    <col min="5" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10838,13 +10940,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10860,7 +10962,7 @@
       </c>
       <c r="D2" s="16">
         <f>'EIA Costs'!E3*About!$A$61</f>
-        <v>7.2076599999999997</v>
+        <v>6.9512999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10876,7 +10978,7 @@
       </c>
       <c r="D3" s="16">
         <f>'EIA Costs'!E5*About!$A$63</f>
-        <v>1.8834580000000001</v>
+        <v>2.3223220000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10885,14 +10987,14 @@
       </c>
       <c r="B4" s="16">
         <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1668910000000001</v>
+        <v>2.1577479999999998</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
         <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1668910000000001</v>
+        <v>2.1577479999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10901,19 +11003,19 @@
       </c>
       <c r="B5" s="16">
         <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2434480000000001</v>
+        <v>1.2708769999999998</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2434480000000001</v>
+        <v>1.2708769999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!E12*About!$A$63</f>
@@ -10965,14 +11067,14 @@
       </c>
       <c r="B9" s="16">
         <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>5.2115100000000005</v>
+        <v>4.3977829999999996</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
         <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>5.2115100000000005</v>
+        <v>4.3977829999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10981,14 +11083,14 @@
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>0</v>
+        <v>1.0605879999999999</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>0</v>
+        <v>1.0605879999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11004,7 +11106,7 @@
       </c>
       <c r="D11" s="16">
         <f>D12</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11020,12 +11122,12 @@
       </c>
       <c r="D12" s="16">
         <f>'EIA Costs'!E7*About!$A$63</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -11037,12 +11139,12 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>12.210623999999999</v>
+        <v>11.77632</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E13*1000</f>
@@ -11058,7 +11160,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
@@ -11069,12 +11171,12 @@
       </c>
       <c r="D15" s="16">
         <f>D11</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
@@ -11085,23 +11187,23 @@
       </c>
       <c r="D16" s="16">
         <f>D11</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" s="16">
         <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>8.6584210000000006</v>
+        <v>5.6412310000000003</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
         <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>8.6584210000000006</v>
+        <v>5.6412310000000003</v>
       </c>
     </row>
   </sheetData>
@@ -11110,41 +11212,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.265625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.265625" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" customWidth="1"/>
-    <col min="11" max="11" width="20.86328125" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.265625" customWidth="1"/>
-    <col min="16" max="16" width="18.86328125" customWidth="1"/>
-    <col min="17" max="17" width="16.59765625" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.5">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -11156,7 +11256,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -11177,19 +11277,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11198,19 +11298,19 @@
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>5064086.276907078</v>
+        <v>4557579.6788879326</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>720796.7716489468</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>962058.30273462704</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5478251.7947959062</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5632940.678707079</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2654933.7360476032</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2434233.6034520324</v>
       </c>
       <c r="F2" s="20">
         <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
@@ -11221,28 +11321,28 @@
         <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3760873.857819173</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>6190235.3107596356</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3561017.0614915011</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3680479.6131787207</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2404345.5554760592</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2270817.9963020692</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>630790.91464397067</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>636580.52455604961</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>630790.91464397067</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>636580.52455604961</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5868983.6976608615</v>
+        <v>5281971.7859389298</v>
       </c>
       <c r="N2" s="20">
         <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
@@ -11250,15 +11350,15 @@
       </c>
       <c r="O2" s="4">
         <f>K2</f>
-        <v>630790.91464397067</v>
+        <v>636580.52455604961</v>
       </c>
       <c r="P2" s="4">
         <f>K2</f>
-        <v>630790.91464397067</v>
+        <v>636580.52455604961</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8121858.1440940769</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1396322.3093857865</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11267,19 +11367,19 @@
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>5031538.553814155</v>
+        <v>4528287.3577758651</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>715639.34329789365</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>955174.60546925361</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5439617.3895918122</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5593215.3574141553</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2614511.0720952055</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2397171.2069040639</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11288,43 +11388,43 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3598486.4156383448</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5922952.6215192685</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3556264.1229830021</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3675567.2263574409</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2260537.0109521174</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2134995.9926041379</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>629800.5292879414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>629800.5292879414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5831262.7652392657</v>
+        <v>5248023.67651249</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>629800.5292879414</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>629800.5292879414</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8111017.7881881548</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1394458.6187715731</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11333,19 +11433,19 @@
       </c>
       <c r="B4" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4998990.830721234</v>
+        <v>4498995.0366637995</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>710481.91494684049</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>948290.90820388054</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5400982.9843877172</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5553490.0361212343</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2574088.4081428093</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2360108.8103560968</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11354,43 +11454,43 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3436098.9734575162</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5655669.9322789013</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3550519.7582775778</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3669630.1536549246</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2116728.466428176</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1999173.9889062068</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>634311.81211813237</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640133.73800439923</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>634311.81211813237</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640133.73800439923</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5793541.8328176718</v>
+        <v>5214075.5670860531</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>634311.81211813237</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>634311.81211813237</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8097916.2179177077</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1392206.1767155745</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11399,19 +11499,19 @@
       </c>
       <c r="B5" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4966443.107628312</v>
+        <v>4469702.7155517321</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>705324.48659578711</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>941407.21093850711</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5362348.5791836223</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5513764.7148283115</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2533665.7441904116</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2323046.4138081288</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11420,43 +11520,43 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3273711.5312766884</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5388387.243038536</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3590174.8627922307</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3710615.5803474663</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1972919.9219042347</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1863351.9852082757</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>626686.34387035528</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>632438.28065955907</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>626686.34387035528</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>632438.28065955907</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5755820.900396076</v>
+        <v>5180127.4576596133</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>626686.34387035528</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>626686.34387035528</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8188360.3601376666</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1407755.4723686662</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11465,19 +11565,19 @@
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4933895.38453539</v>
+        <v>4440410.3944396656</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>700167.05824473395</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>934523.51367313403</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5323714.1739795282</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5474039.3935353896</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2493243.0802380154</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2285984.0172601612</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11486,43 +11586,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3081544.2527027735</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5072088.2342516193</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3498002.0144531941</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3615350.5806739321</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1829111.3773802938</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1727529.9815103451</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>622011.50522564363</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>627720.5347827893</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>622011.50522564363</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>627720.5347827893</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5718099.9679744812</v>
+        <v>5146179.3482331755</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>622011.50522564363</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>622011.50522564363</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7978135.3637336325</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1371613.268545154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11531,19 +11631,19 @@
       </c>
       <c r="B7" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4901347.6614424679</v>
+        <v>4411118.0733275991</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>689558.55689698691</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>920364.18721302296</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5285079.7687754352</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5434314.0722424677</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2452820.4162856182</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2248921.6207121932</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11552,43 +11652,43 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2916824.1410367326</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4800966.0721755233</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3481100.5819001063</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3597882.1504836255</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1685302.8328563524</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1591707.9778124143</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>609751.08625557902</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>615347.58558829164</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>609751.08625557902</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>615347.58558829164</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5680379.0355528863</v>
+        <v>5112231.2388067376</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>609751.08625557902</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>609751.08625557902</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7939587.0964106284</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1364985.9913019019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11597,19 +11697,19 @@
       </c>
       <c r="B8" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4871133.5521644214</v>
+        <v>4383925.9595025899</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>684220.78187922772</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>913239.77853647328</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5248975.3203206714</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5397190.1458511474</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2412397.752333221</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2211859.2241642252</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11618,43 +11718,43 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2737126.4823311814</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4505191.5170499301</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3465752.0681416341</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3582018.7353398106</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1541494.2883324109</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1455885.9741144832</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>604079.20045986038</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>609623.64132841176</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>604079.20045986038</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>609623.64132841176</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5645362.6268473649</v>
+        <v>5080717.1484027747</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>604079.20045986038</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>604079.20045986038</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7904580.6784922676</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1358967.6342407612</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11663,19 +11763,19 @@
       </c>
       <c r="B9" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4860986.9768395703</v>
+        <v>4374794.2380069029</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>681555.86825411068</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>909682.87820068328</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5234491.5048556123</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5382297.3522425154</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2371975.0883808243</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2174796.8276162585</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11684,43 +11784,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2557428.8236256307</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4209416.9619243396</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3463946.7249027211</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3580152.8276873408</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1397685.7438084695</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1320063.9704165517</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>600709.84972221882</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>606223.36556319764</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>600709.84972221882</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>606223.36556319764</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5633603.3317026133</v>
+        <v>5070134.0102690179</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>600709.84972221882</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>600709.84972221882</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7900463.1071819756</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1358259.7350655918</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11729,19 +11829,19 @@
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4848899.9425518662</v>
+        <v>4363916.1409849636</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678836.18675523507</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>906052.87835925608</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5217901.8847617349</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5365239.2925965758</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2331552.4244284267</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2137734.4310682896</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11750,43 +11850,43 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2377731.1649200805</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3913642.4067987497</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3460852.7254932183</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3576955.0329132001</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1253877.1992845279</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1184241.9667186209</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>597375.06250310456</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>602857.9705520398</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>597375.06250310456</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>602857.9705520398</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5619595.1566225216</v>
+        <v>5057526.9237005152</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>597375.06250310456</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>597375.06250310456</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7893406.4085287629</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1357046.5366096133</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11795,19 +11895,19 @@
       </c>
       <c r="B11" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4834259.650226308</v>
+        <v>4350740.1611245479</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>675969.71587196749</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>902226.95651656261</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5198551.6690101232</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5345342.686611332</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2291129.7604760304</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2100672.0345203225</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -11816,43 +11916,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2198033.5062145297</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3617867.851673157</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3456049.6215158268</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3571990.797706374</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1110068.654760587</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1048419.9630206898</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>593992.07759784628</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>599443.93548026006</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>593992.07759784628</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>599443.93548026006</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5602627.9028497105</v>
+        <v>5042256.7235552054</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>593992.07759784628</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>593992.07759784628</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7882451.6367649436</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1355163.17544562</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11861,19 +11961,19 @@
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4814599.4303434519</v>
+        <v>4333046.343578591</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>673517.14606499264</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>898953.47467168875</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5173796.5234418577</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5319888.5323113659</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2250707.0965236328</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2063609.6379723544</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -11882,43 +11982,43 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2018335.8475089783</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3322093.2965475647</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3447855.0324163544</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3563521.302166706</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>966260.11023664533</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>912597.95932275837</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>591412.75760823954</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>596840.94162942353</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>591412.75760823954</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>596840.94162942353</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5579842.8427864406</v>
+        <v>5021750.6103003519</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>591412.75760823954</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>591412.75760823954</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7863761.6700880704</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1351949.9677079825</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11927,19 +12027,19 @@
       </c>
       <c r="B13" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4784972.2931732424</v>
+        <v>4306382.493295013</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>669688.42419803585</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>893843.22195435094</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5138334.26897074</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5283424.9334751861</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2210284.4325712356</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2026547.2414243866</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -11948,43 +12048,43 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1838638.1888034281</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3026318.7414219733</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3432888.6656527086</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3548052.8540223199</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>822451.56571270374</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>776775.95562482707</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>587632.55515291414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>593026.04321209737</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>587632.55515291414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>593026.04321209737</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>5545506.700874079</v>
+        <v>4990848.7468497222</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>587632.55515291414</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>587632.55515291414</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7829626.8412771393</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1346081.4555830292</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -11993,19 +12093,19 @@
       </c>
       <c r="B14" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4763135.5944755012</v>
+        <v>4286729.8869220419</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>667515.74687055824</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>890943.31681565102</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5111243.09969428</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5255568.7933839113</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2169861.7686188393</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1989484.8448764191</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12014,43 +12114,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1658940.5300978783</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2730544.1862963829</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3423211.9373550331</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3538051.4974978026</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>585530.80757154443</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>590905.00508873118</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>585530.80757154443</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>590905.00508873118</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>5520199.2274899473</v>
+        <v>4968072.5104049603</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>585530.80757154443</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>585530.80757154443</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7807556.4571212865</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1342287.0812875433</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12059,19 +12159,19 @@
       </c>
       <c r="B15" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4741426.478848788</v>
+        <v>4267192.1028447589</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>665500.39399619412</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>888253.39499304548</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5084287.5593440877</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5227852.1119602192</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2129439.1046664426</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1952422.4483284515</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12080,43 +12180,43 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1642444.2286021602</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2703391.9892602018</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3413622.6676181271</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3528140.5335337119</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>583622.22681032016</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>588978.90673516935</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>583622.22681032016</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>588978.90673516935</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>5495039.6155210864</v>
+        <v>4945429.3463733969</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>583622.22681032016</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>583622.22681032016</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7785685.5457598045</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1338527.000660816</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -12125,19 +12225,19 @@
       </c>
       <c r="B16" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4717124.7826897809</v>
+        <v>4245321.0464447401</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>662771.45293364581</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>884611.0362725812</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5054553.1781136096</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5197278.1237860257</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2089016.440714045</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1915360.0517804835</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12146,43 +12246,43 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1625947.9271064417</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2676239.7922240188</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3402263.1629461991</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3516399.9480102807</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>580949.29130652454</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>586281.43813565525</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>580949.29130652454</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>586281.43813565525</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>5466875.3523581317</v>
+        <v>4920082.05439544</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>580949.29130652454</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>580949.29130652454</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7759777.1370272925</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1334072.7872933741</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -12191,19 +12291,19 @@
       </c>
       <c r="B17" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4694802.583419539</v>
+        <v>4225231.4989490611</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>660625.97031838971</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>881747.42832570034</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5026942.0678779799</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5168887.3612113139</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2048593.776761648</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1878297.6552325157</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12212,43 +12312,43 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1609451.6256107236</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2649087.5951878377</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3392253.8303445629</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3506054.8292013253</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>578909.22003510536</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>584222.64240803325</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>578909.22003510536</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>584222.64240803325</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>5441005.2118333932</v>
+        <v>4896799.4284095466</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>578909.22003510536</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
-        <v>578909.22003510536</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7736948.159208945</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1330147.9944119062</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -12257,19 +12357,19 @@
       </c>
       <c r="B18" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4676171.118459139</v>
+        <v>4208463.5409309175</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>658776.18363552867</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>879278.49019149749</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5003279.8470043289</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5144556.9924184158</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2008171.1128092513</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1841235.2586845479</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12278,43 +12378,43 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1592955.3241150051</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2621935.3981516548</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3384774.0298921876</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3498324.1015467704</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>577039.06568608666</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>582335.32315713551</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>577039.06568608666</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>582335.32315713551</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>5419412.4193458781</v>
+        <v>4877366.332907143</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>577039.06568608666</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
-        <v>577039.06568608666</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7719888.4604848735</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1327215.064841209</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -12323,19 +12423,19 @@
       </c>
       <c r="B19" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4651654.2466609143</v>
+        <v>4186398.8306184118</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>656380.38356404728</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>876080.77976725693</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4973319.8532436835</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5113751.0211141268</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1967748.4488568543</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1804172.86213658</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12344,43 +12444,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1576459.022619287</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2594783.2011154736</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3373261.2638571416</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3486425.1131533994</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>574803.15383415646</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>580078.88935867744</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>574803.15383415646</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>580078.88935867744</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>5390998.7800369319</v>
+        <v>4851794.6072222488</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>574803.15383415646</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>574803.15383415646</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7693630.4979510959</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1322700.7556481098</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -12389,19 +12489,19 @@
       </c>
       <c r="B20" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4629129.3831464667</v>
+        <v>4166126.8892237116</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>654095.55555118888</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>873031.18542034749</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4945491.3223203206</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5085136.6985640414</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1957158.1710932388</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1794462.9361779527</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12410,43 +12510,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1559962.7211235689</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2567631.0040792916</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3363113.1502028932</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3475936.55756051</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>572597.01425367699</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>577852.50109153183</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>572597.01425367699</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>577852.50109153183</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>5364893.7633508667</v>
+        <v>4828300.5972351003</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>572597.01425367699</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>572597.01425367699</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7670484.9925781367</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1318721.5448639654</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -12455,19 +12555,19 @@
       </c>
       <c r="B21" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4605495.3571930388</v>
+        <v>4144856.7230918976</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>652008.45930963557</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>870245.50664545642</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4916479.7116339877</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5055305.8897382952</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1946567.8933296236</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1784753.010219326</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12476,43 +12576,43 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1543466.4196278511</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2540478.80704311</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3352200.3800697704</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3464657.6933189998</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>570705.39606832794</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>575943.52100203745</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>570705.39606832794</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>575943.52100203745</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>5337503.2914184891</v>
+        <v>4803649.702394818</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>570705.39606832794</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>570705.39606832794</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7645595.4822360529</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1314442.5020705855</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -12521,19 +12621,19 @@
       </c>
       <c r="B22" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4584395.747225523</v>
+        <v>4125867.4823163347</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>650617.79886356287</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>868389.37121165253</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4890175.1739440486</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5028258.59327613</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1935977.615566008</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1775043.0842606986</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12542,43 +12642,43 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1526970.1181321328</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2513326.610006928</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3343033.8633321188</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3455183.6645810818</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>569557.99255406461</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>574785.58623469959</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>569557.99255406461</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>574785.58623469959</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>5313050.0613281867</v>
+        <v>4781642.2683882229</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="0"/>
-        <v>569557.99255406461</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>569557.99255406461</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7624688.7729074871</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1310848.1885362437</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -12587,19 +12687,19 @@
       </c>
       <c r="B23" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4560854.3984156279</v>
+        <v>4104680.723820759</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>648880.35146640975</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>866070.37401335512</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4861264.4588709604</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4998531.5290436288</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1925387.3378023915</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1765333.158302071</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12608,43 +12708,43 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1510473.8166364138</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2486174.4129707455</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3332180.7051944486</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3443966.4121572562</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>568106.98562128015</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>573321.26147515886</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>568106.98562128015</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>573321.26147515886</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>5285766.9968558718</v>
+        <v>4757088.0381840812</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>568106.98562128015</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>568106.98562128015</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7599935.2237704154</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1306592.5204017661</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -12653,19 +12753,19 @@
       </c>
       <c r="B24" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4537891.6878652498</v>
+        <v>4084014.7285643537</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>647224.47835967725</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>863860.25524858502</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4832972.4464097433</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4969440.6376708252</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1914797.0600387768</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1755623.2323434441</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12674,43 +12774,43 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1493977.515140696</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2459022.2159345644</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3321725.4894855786</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3433160.4520611921</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>566727.40616458142</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571929.01977696037</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>566727.40616458142</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571929.01977696037</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>5259154.5407275399</v>
+        <v>4733137.3425158681</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="0"/>
-        <v>566727.40616458142</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>566727.40616458142</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7576089.2894805698</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1302492.8908039173</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -12719,19 +12819,19 @@
       </c>
       <c r="B25" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4519597.7110145967</v>
+        <v>4067550.5033159018</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>646235.67537540558</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>862540.48501902213</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4809649.9543022905</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4945459.5905335443</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1904206.782275161</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1745913.3063848168</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12740,43 +12840,43 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1477481.2136449779</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2431870.0188983819</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3314507.2962981635</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3425700.1078922306</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>565931.94021411764</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571126.25277404871</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>565931.94021411764</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571126.25277404871</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>5237952.8774795271</v>
+        <v>4714056.2557621887</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>565931.94021411764</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>565931.94021411764</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7559626.2565569635</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1299662.5409327983</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -12785,19 +12885,19 @@
       </c>
       <c r="B26" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4491118.1877012318</v>
+        <v>4041919.4833016312</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>643789.57243076363</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>859275.63459266303</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4775491.2722972743</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4910336.3730173539</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1893616.5045115454</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1736203.3804261896</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -12806,43 +12906,43 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1460984.9121492596</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2404717.8218621998</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3300220.3511995459</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3410933.8741836962</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563860.27836401947</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>569035.57651885482</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563860.27836401947</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>569035.57651885482</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>5204946.7537873816</v>
+        <v>4684351.3829790875</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
-        <v>563860.27836401947</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>563860.27836401947</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7527041.0317743495</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1294060.4391091652</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -12851,19 +12951,19 @@
       </c>
       <c r="B27" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4475150.7348906612</v>
+        <v>4027549.0846800846</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>643137.03318897693</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>858404.68064265454</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4754636.3523898665</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4888892.5746857012</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1883026.2267479296</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1726493.454467562</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12872,43 +12972,43 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1444488.6106535415</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2377565.6248260182</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3294628.709260257</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3405154.6476856545</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563359.47632700379</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>568530.177953306</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563359.47632700379</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>568530.177953306</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>5186441.3976156767</v>
+        <v>4667696.920431057</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>563359.47632700379</v>
+        <v>568530.177953306</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>563359.47632700379</v>
+        <v>568530.177953306</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7514287.7868897393</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1291867.8816877592</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -12917,19 +13017,19 @@
       </c>
       <c r="B28" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4447660.3112985436</v>
+        <v>4002808.235279711</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>640828.84107575472</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>855323.90187924227</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4721537.5164747164</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4854859.1300343601</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1872435.9489843145</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1716783.5285089349</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -12938,43 +13038,43 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1427992.3091578234</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2350413.4277898367</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3281015.3595255446</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3391084.6066551027</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>561408.40000623069</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>566561.19400174171</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>561408.40000623069</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>566561.19400174171</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>5154581.5834099697</v>
+        <v>4639023.7040091278</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="0"/>
-        <v>561408.40000623069</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>561408.40000623069</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7483238.8776871078</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1286529.9055950278</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -12983,19 +13083,19 @@
       </c>
       <c r="B29" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4430679.4514732715</v>
+        <v>3987525.789950409</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>640034.79412682063</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>854264.07546210196</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4699595.644906722</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4832297.6878896719</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1861845.6712206989</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1707073.6025503075</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13004,43 +13104,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1411496.0076621051</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2323261.2307536541</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3274731.7740136739</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3384590.2237373139</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>560783.77780424629</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>565930.83880835248</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>560783.77780424629</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>565930.83880835248</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>5134901.7470017215</v>
+        <v>4621312.2319698231</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>560783.77780424629</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>560783.77780424629</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7468907.4691927256</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1284066.0278652529</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -13049,19 +13149,19 @@
       </c>
       <c r="B30" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4404944.7675811611</v>
+        <v>3964365.0723133213</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>637976.97850742575</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>851517.47797442612</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4668368.5963213015</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4800188.8840519451</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1851255.3934570833</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1697363.6765916804</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13070,43 +13170,43 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1394999.7061663871</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2296109.0337174726</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3262334.739674523</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3371777.3022148283</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>559051.94687243411</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>564183.11255323095</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>559051.94687243411</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>564183.11255323095</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>5105076.7337676473</v>
+        <v>4594470.2970568947</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="0"/>
-        <v>559051.94687243411</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>559051.94687243411</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7440632.6947191991</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1279204.9852700992</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -13115,19 +13215,19 @@
       </c>
       <c r="B31" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4383321.6335722934</v>
+        <v>3944904.6700286916</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>636513.4857734699</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>849564.13218949281</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4641501.5041901665</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4772563.1483514039</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1840665.1156934679</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1687653.7506330532</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13136,43 +13236,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1378503.4046706685</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2268956.8366812905</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3252811.6859676302</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3361934.7756505935</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>557840.84849359537</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>562960.8983085549</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>557840.84849359537</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>562960.8983085549</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>5080016.7695310405</v>
+        <v>4571916.8140565678</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="0"/>
-        <v>557840.84849359537</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>557840.84849359537</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7418912.8068415569</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1275470.8688323523</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -13181,19 +13281,19 @@
       </c>
       <c r="B32" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4361626.2086551897</v>
+        <v>3925379.2073251978</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>635039.73497679201</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>847597.09481380892</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4614554.8502994552</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4744855.6043133195</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1830074.8379298523</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1677943.8246744261</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13202,43 +13302,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1362007.1031749502</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2241804.6396451085</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3243238.7174595776</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3352040.6597777726</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>556620.81337894208</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>561729.66530371504</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>556620.81337894208</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>561729.66530371504</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>5054873.0243043946</v>
+        <v>4549287.9297860414</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="0"/>
-        <v>556620.81337894208</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>556620.81337894208</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7397079.0748212673</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1271717.1801349882</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -13247,19 +13347,19 @@
       </c>
       <c r="B33" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4339539.6549929967</v>
+        <v>3905501.7363179387</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>633509.41195646103</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>845554.54963951895</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4587194.9441808192</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4716723.1390827727</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1819484.5601662367</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1668233.898715799</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13268,43 +13368,43 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1345510.8016792322</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2214652.4426089264</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3233391.9604599359</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3341863.5705453139</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>555351.1009336178</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>560448.29901305423</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>555351.1009336178</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>560448.29901305423</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>5029275.9834380029</v>
+        <v>4526251.0882092463</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>555351.1009336178</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>555351.1009336178</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7374620.8944336222</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1267856.1353165335</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -13313,19 +13413,19 @@
       </c>
       <c r="B34" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4284175.5342172347</v>
+        <v>3855675.0986996656</v>
       </c>
       <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>627108.04318478121</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>837010.54636717902</v>
       </c>
       <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4524689.2492347453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4652452.4766705297</v>
       </c>
       <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1808894.2824026213</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1658523.9727571718</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -13334,43 +13434,43 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1329014.5001835146</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2187500.2455727453</v>
       </c>
       <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3200081.6556472601</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3307435.7945322236</v>
       </c>
       <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>549810.83079493511</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>554857.17842271458</v>
       </c>
       <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>549810.83079493511</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>554857.17842271458</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4965112.1630564258</v>
+        <v>4468504.8911856236</v>
       </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="0"/>
-        <v>549810.83079493511</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>
-        <v>549810.83079493511</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7298647.7761493279</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1254794.7202940234</v>
       </c>
     </row>
     <row r="35" spans="1:17">
